--- a/WIP/Users/LucPT/FAP_TestViewpoint_HelpCenter_v1.0_EN.xlsx
+++ b/WIP/Users/LucPT/FAP_TestViewpoint_HelpCenter_v1.0_EN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin-pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\2015SUMJS01\WIP\Users\LucPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -1007,9 +1007,6 @@
     <t>UJD_VN_TestViewpoint_Edit profile_v1.0_EN</t>
   </si>
   <si>
-    <t>Edit profile screen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Word that user input is displayed </t>
   </si>
   <si>
@@ -1028,18 +1025,10 @@
     <t>Input subject  in "Subject" textbox</t>
   </si>
   <si>
-    <t>- Display full item
-- Display header, footer
-- Text's color is black</t>
-  </si>
-  <si>
     <t>Input content in "Content" textbox</t>
   </si>
   <si>
     <t>Send</t>
-  </si>
-  <si>
-    <t>Click "Sendi" button or press enter</t>
   </si>
   <si>
     <t>Redirect user to previous page</t>
@@ -1088,6 +1077,16 @@
   </si>
   <si>
     <t>Question is displayed</t>
+  </si>
+  <si>
+    <t>Click "Send" button or press enter</t>
+  </si>
+  <si>
+    <t>Basic guide screen</t>
+  </si>
+  <si>
+    <t>- Display full item
+- Display header, footer</t>
   </si>
 </sst>
 </file>
@@ -3087,6 +3086,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3104,27 +3124,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3526,22 +3525,22 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>117360</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>122752</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3552,29 +3551,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="2333625" y="400050"/>
-          <a:ext cx="3955935" cy="3971925"/>
+          <a:off x="1152525" y="628650"/>
+          <a:ext cx="10058400" cy="3970852"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -6265,9 +6253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6285,14 +6271,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="110"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6307,12 +6293,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6324,12 +6310,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6338,15 +6324,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6355,11 +6341,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="112"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6382,10 +6368,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="108"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6403,10 +6389,10 @@
       <c r="B10" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="104"/>
+      <c r="D10" s="111"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6420,8 +6406,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6429,8 +6415,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6438,8 +6424,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="104"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6447,8 +6433,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6456,8 +6442,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6465,8 +6451,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="109"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6474,12 +6460,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6487,6 +6467,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6502,8 +6488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6624,7 +6610,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6693,10 +6679,10 @@
         <v>37</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="103.5" customHeight="1">
@@ -6724,7 +6710,7 @@
         <v>40</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1">
@@ -6754,7 +6740,7 @@
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6773,7 +6759,7 @@
       <c r="E13" s="56"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -6785,10 +6771,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="31.5" customHeight="1">
@@ -6801,7 +6787,7 @@
       <c r="E14" s="56"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>35</v>
@@ -6813,10 +6799,10 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1" ht="43.5" customHeight="1">
@@ -6841,10 +6827,10 @@
         <v>37</v>
       </c>
       <c r="K15" s="56" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L15" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="44" customFormat="1" ht="42" customHeight="1">
@@ -6857,7 +6843,7 @@
       <c r="E16" s="64"/>
       <c r="F16" s="63"/>
       <c r="G16" s="63" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>35</v>
@@ -6869,10 +6855,10 @@
         <v>37</v>
       </c>
       <c r="K16" s="59" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="L16" s="62" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
@@ -6884,7 +6870,7 @@
       <c r="D17" s="60"/>
       <c r="E17" s="61"/>
       <c r="F17" s="51" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G17" s="52"/>
       <c r="H17" s="52"/>
@@ -6903,7 +6889,7 @@
       <c r="E18" s="56"/>
       <c r="F18" s="62"/>
       <c r="G18" s="62" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>35</v>
@@ -6915,10 +6901,10 @@
         <v>37</v>
       </c>
       <c r="K18" s="56" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L18" s="62" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
@@ -6931,7 +6917,7 @@
       <c r="E19" s="56"/>
       <c r="F19" s="62"/>
       <c r="G19" s="62" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H19" s="49" t="s">
         <v>35</v>
@@ -6943,23 +6929,23 @@
         <v>37</v>
       </c>
       <c r="K19" s="56" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L19" s="62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="48"/>
       <c r="C20" s="49" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D20" s="60"/>
       <c r="E20" s="64"/>
       <c r="F20" s="63"/>
       <c r="G20" s="63" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H20" s="49" t="s">
         <v>35</v>
@@ -6971,10 +6957,10 @@
         <v>37</v>
       </c>
       <c r="K20" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" s="62" t="s">
         <v>162</v>
-      </c>
-      <c r="L20" s="62" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="44" customFormat="1">
@@ -8062,14 +8048,14 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="80" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
